--- a/backend/PDF_DOC/ALL_PDF/DGFT POLICY - Copy.xlsx
+++ b/backend/PDF_DOC/ALL_PDF/DGFT POLICY - Copy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E4F033-6496-4C7C-9F20-7E2175B3768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB21D3-292D-4995-A45A-D04E4DB38E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PUBLIC NOTICE" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="754">
   <si>
     <t>DGFT - PUBLIC NOTICE</t>
   </si>
@@ -2264,6 +2264,36 @@
   </si>
   <si>
     <t xml:space="preserve"> TRADE NOTICE-11/2025-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRADE NOTICE-29 /2025-26</t>
+  </si>
+  <si>
+    <t>Guidelines for Facilitating Logistics Interventions for Freight and Transport (LIFT) under Export Promotion Mission (EPM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRADE NOTICE-28 /2025-26</t>
+  </si>
+  <si>
+    <t>Guidelines for Facilitating Logistics, Overseas Warehousing and Fulfilment (FLOW) under Export Promotion Mission (EPM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRADE NOTICE-27 /2025-26</t>
+  </si>
+  <si>
+    <t>Guidelines for Integrated Support for Trade Intelligence and Facilitation (INSIGHT) under Export Promotion Mission (EPM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRADE NOTICE-26 /2025-26</t>
+  </si>
+  <si>
+    <t>Guidelines for Trade Regulations, Accreditation and Compliance Enablement (TRACE) under Export Promotion Mission (EPM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRADE NOTICE-25/2025-26</t>
+  </si>
+  <si>
+    <t>Guidelines for Support for Alternative Trade Instruments under Export Promotion Mission (EPM)</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2408,6 +2438,10 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2690,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
@@ -9411,16 +9445,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="26"/>
+    <col min="1" max="1" width="8.88671875" style="26"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="132.5546875" customWidth="1"/>
@@ -9456,151 +9490,148 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="E5" s="32">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <f t="shared" ref="A6:A69" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="E6" s="32">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>748</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="E7" s="32">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="E8" s="32">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="E9" s="32">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>681</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>385</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E10" s="2">
         <v>46267</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
-        <f>ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>682</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E11" s="2">
         <v>46175</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
-        <f t="shared" ref="A7:A67" si="0">ROW()-4</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E12" s="23">
         <v>46045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="20">
-        <v>46024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" s="20">
-        <v>46024</v>
-      </c>
-      <c r="H9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>686</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="E10" s="20">
-        <v>46022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="20">
-        <v>45986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>688</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="20">
-        <v>45961</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9609,16 +9640,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>320</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="E13" s="20">
-        <v>45959</v>
+        <v>46024</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9627,16 +9658,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E14" s="20">
-        <v>45959</v>
+        <v>46024</v>
+      </c>
+      <c r="H14" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9645,16 +9679,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E15" s="20">
-        <v>45957</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9663,16 +9697,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>323</v>
+      <c r="D16" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="E16" s="20">
-        <v>45930</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9681,16 +9715,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>324</v>
+      <c r="D17" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="E17" s="20">
-        <v>45924</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9699,16 +9733,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2025</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>325</v>
+        <v>689</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>320</v>
       </c>
       <c r="E18" s="20">
-        <v>45896</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9717,16 +9751,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>742</v>
+        <v>690</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E19" s="20">
-        <v>45866</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9735,16 +9769,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E20" s="20">
-        <v>45860</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9753,16 +9787,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>740</v>
+        <v>692</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>328</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="E21" s="20">
-        <v>45852</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9771,16 +9805,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>739</v>
-      </c>
-      <c r="C22" s="19">
-        <v>2025</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>329</v>
+        <v>693</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="E22" s="20">
-        <v>45840</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9789,16 +9823,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>738</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>4</v>
+        <v>743</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2025</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E23" s="20">
-        <v>45826</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9807,16 +9841,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E24" s="20">
-        <v>45821</v>
+        <v>45866</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9825,16 +9859,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E25" s="20">
-        <v>45776</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9843,16 +9877,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="C26" s="19">
-        <v>2025</v>
+        <v>740</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E26" s="20">
-        <v>45770</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9861,16 +9895,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>334</v>
+        <v>739</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="E27" s="20">
-        <v>45768</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9879,16 +9913,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E28" s="20">
-        <v>45758</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9897,16 +9931,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>336</v>
+        <v>4</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="E29" s="20">
-        <v>45741</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9915,16 +9949,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E30" s="20">
-        <v>45736</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9933,16 +9967,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>112</v>
+        <v>735</v>
+      </c>
+      <c r="C31" s="19">
+        <v>2025</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E31" s="20">
-        <v>45728</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9951,16 +9985,16 @@
         <v>28</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E32" s="20">
-        <v>45716</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9969,16 +10003,16 @@
         <v>29</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E33" s="20">
-        <v>45701</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9987,16 +10021,16 @@
         <v>30</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>341</v>
+      <c r="D34" s="21" t="s">
+        <v>336</v>
       </c>
       <c r="E34" s="20">
-        <v>45700</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10005,16 +10039,16 @@
         <v>31</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E35" s="20">
-        <v>45699</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10023,16 +10057,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E36" s="20">
-        <v>45699</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10041,16 +10075,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E37" s="20">
-        <v>45686</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10059,16 +10093,16 @@
         <v>34</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E38" s="20">
-        <v>45656</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10077,16 +10111,16 @@
         <v>35</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>722</v>
-      </c>
-      <c r="C39" s="19">
-        <v>2024</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>346</v>
+        <v>727</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="E39" s="20">
-        <v>45656</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10095,16 +10129,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E40" s="20">
-        <v>45646</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10113,16 +10147,16 @@
         <v>37</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E41" s="20">
-        <v>45632</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10131,16 +10165,16 @@
         <v>38</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E42" s="20">
-        <v>45610</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10149,16 +10183,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E43" s="20">
-        <v>45582</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10167,16 +10201,16 @@
         <v>40</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>351</v>
+        <v>722</v>
+      </c>
+      <c r="C44" s="19">
+        <v>2024</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>346</v>
       </c>
       <c r="E44" s="20">
-        <v>45572</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10185,16 +10219,16 @@
         <v>41</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E45" s="20">
-        <v>45569</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10203,16 +10237,16 @@
         <v>42</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E46" s="20">
-        <v>45565</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10221,16 +10255,16 @@
         <v>43</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E47" s="20">
-        <v>45552</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10239,16 +10273,16 @@
         <v>44</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E48" s="20">
-        <v>45535</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10257,16 +10291,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E49" s="20">
-        <v>45533</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10275,16 +10309,16 @@
         <v>46</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E50" s="20">
-        <v>45526</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10293,16 +10327,16 @@
         <v>47</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E51" s="20">
-        <v>45520</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10311,16 +10345,16 @@
         <v>48</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E52" s="20">
-        <v>45518</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10329,16 +10363,16 @@
         <v>49</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E53" s="20">
-        <v>45506</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10347,16 +10381,16 @@
         <v>50</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E54" s="20">
-        <v>45498</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10365,16 +10399,16 @@
         <v>51</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E55" s="20">
-        <v>45496</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10383,16 +10417,16 @@
         <v>52</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E56" s="20">
-        <v>45483</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10401,16 +10435,16 @@
         <v>53</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E57" s="20">
-        <v>45471</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10419,16 +10453,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="E58" s="20">
-        <v>45461</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10437,16 +10471,16 @@
         <v>55</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E59" s="20">
-        <v>45455</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10454,17 +10488,17 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B60" s="30" t="s">
-        <v>701</v>
+      <c r="B60" s="21" t="s">
+        <v>706</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>214</v>
+        <v>362</v>
       </c>
       <c r="E60" s="20">
-        <v>45440</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10472,17 +10506,17 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B61" s="30" t="s">
-        <v>700</v>
+      <c r="B61" s="21" t="s">
+        <v>705</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E61" s="20">
-        <v>45422</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10491,16 +10525,16 @@
         <v>58</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E62" s="20">
-        <v>45400</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10509,16 +10543,16 @@
         <v>59</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>368</v>
+        <v>187</v>
       </c>
       <c r="E63" s="20">
-        <v>45384</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10527,16 +10561,16 @@
         <v>60</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E64" s="20">
-        <v>45371</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10544,17 +10578,17 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>696</v>
+      <c r="B65" s="30" t="s">
+        <v>701</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="E65" s="20">
-        <v>45369</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10562,34 +10596,124 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E66" s="20">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="26">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E67" s="20">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="26">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E68" s="20">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="26">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E69" s="20">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="26">
+        <f t="shared" ref="A70:A72" si="1">ROW()-4</f>
+        <v>66</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="E70" s="20">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="26">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>695</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D71" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E71" s="20">
         <v>45338</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="26">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B67" s="21" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>694</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D72" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E72" s="20">
         <v>45335</v>
       </c>
     </row>
